--- a/graph.xlsx
+++ b/graph.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="得点" sheetId="2" r:id="rId1"/>
-    <sheet name="打点" sheetId="3" r:id="rId2"/>
-    <sheet name="打点vs" sheetId="4" r:id="rId3"/>
-    <sheet name="生還率" sheetId="7" r:id="rId4"/>
-    <sheet name=" 3つ並べてみる" sheetId="8" r:id="rId5"/>
-    <sheet name="E" sheetId="5" r:id="rId6"/>
-    <sheet name="ハムはほんとに4番で点とってるの " sheetId="6" r:id="rId7"/>
+    <sheet name="得点 per 打席数" sheetId="9" r:id="rId2"/>
+    <sheet name="打点" sheetId="3" r:id="rId3"/>
+    <sheet name="打点vs" sheetId="4" r:id="rId4"/>
+    <sheet name="生還率" sheetId="7" r:id="rId5"/>
+    <sheet name=" 3つ並べてみる" sheetId="8" r:id="rId6"/>
+    <sheet name="E" sheetId="5" r:id="rId7"/>
+    <sheet name="ハムはほんとに4番で点とってるの " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="230">
   <si>
     <t>C</t>
   </si>
@@ -1029,6 +1030,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>分布の割合</t>
+    <rPh sb="0" eb="2">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -10819,7 +10830,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6B163EE-8D4F-460B-9C6C-1F9161743803}" type="CELLRANGE">
+                    <a:fld id="{A44B2654-AB0C-4465-8611-C2CB7CAE35DF}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10853,7 +10864,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5B11509-6B51-4C97-91AD-D0B1745B72DA}" type="CELLRANGE">
+                    <a:fld id="{3531F79E-B7C1-4B28-815B-8A45E4D02B94}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10887,7 +10898,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B11B280-F96D-4D95-9753-FE9E0BC3364C}" type="CELLRANGE">
+                    <a:fld id="{3F41CB7A-67EC-4E93-87F8-8CFE386C9E3B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10921,7 +10932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DD9B8C8-8235-41B5-B911-93CDCB48FE23}" type="CELLRANGE">
+                    <a:fld id="{D22CEBA8-6085-4335-A321-B62450DC9E8E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10955,7 +10966,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59E80A04-E89A-4D82-9777-0C22E0657834}" type="CELLRANGE">
+                    <a:fld id="{B40CB18E-75D9-42D8-B6A1-2422484C0CFB}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10989,7 +11000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF4F7764-CCF5-4FAA-BD4B-2EBBBF24EEA7}" type="CELLRANGE">
+                    <a:fld id="{C50B5306-FE30-4D3E-8D84-1DD5145C0CF5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11023,7 +11034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E43FA9D0-D874-45FE-9B66-765E8E9AF7DB}" type="CELLRANGE">
+                    <a:fld id="{4C094CE2-75D7-403E-8DE0-5171C0172C57}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11057,7 +11068,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8C10303-1901-4257-A9A3-9C746E619F02}" type="CELLRANGE">
+                    <a:fld id="{41E1B49C-D8F4-4412-B44A-2568A16AD35C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11091,7 +11102,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1268218A-3D54-4008-AE0E-F70E9BC1EA3A}" type="CELLRANGE">
+                    <a:fld id="{3B90FA5E-416C-4B8C-AC85-649505DABAF4}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11125,7 +11136,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EBC1150-3353-44C8-82C2-9E1341A2D2CA}" type="CELLRANGE">
+                    <a:fld id="{10E20EEA-3F02-4314-9F9B-59F3506CB4D6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11159,7 +11170,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCD0FB07-96EB-4E65-8CBD-72BBB0E259D3}" type="CELLRANGE">
+                    <a:fld id="{9BBD9AA1-061A-40B4-854C-EDFA7A1B4E01}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11783,7 +11794,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20CCC0C5-BFDE-4CE4-A8D7-FB955A66B213}" type="CELLRANGE">
+                    <a:fld id="{E02B51F6-CC7B-4104-8D98-DF4A67303459}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11817,7 +11828,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F82EE10A-AEE4-4B13-AD0E-4E8C4C1BFA08}" type="CELLRANGE">
+                    <a:fld id="{32BE62D3-4D4A-4111-9093-2D184E142A39}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11851,7 +11862,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B661B41-F8F8-4749-BCB7-D441CBA2AF70}" type="CELLRANGE">
+                    <a:fld id="{D9FBFC15-63B8-460D-9E85-C8897DC00C46}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11885,7 +11896,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{888A103B-0A33-4103-B531-62E998CE1A13}" type="CELLRANGE">
+                    <a:fld id="{9C171093-139C-464E-9D73-447C53C43304}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11919,7 +11930,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3ED12500-28B9-4666-86AC-3EA9FE4A3B64}" type="CELLRANGE">
+                    <a:fld id="{C8650624-C165-43B6-963F-DBD39C47B3F2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11953,7 +11964,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{572F216A-A99C-44C7-92E3-630F344C614E}" type="CELLRANGE">
+                    <a:fld id="{4E5644AA-BAAF-4151-826C-092AF91075C2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11987,7 +11998,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCCB9A6A-F162-4470-BC54-4861E824D0EC}" type="CELLRANGE">
+                    <a:fld id="{1124FEFD-447B-447A-A006-BF68DDEA8E28}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12021,7 +12032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF14591D-37CE-44F8-9E5E-873D166C3CFD}" type="CELLRANGE">
+                    <a:fld id="{878AF560-BDDF-423C-A651-6E7A467FAAD0}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12055,7 +12066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BE9F2AB-08C8-4A3F-9122-FF7A6616F457}" type="CELLRANGE">
+                    <a:fld id="{892C0C08-E4AC-4631-83DD-FC9894316798}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12089,7 +12100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23774733-1779-47D9-8B40-91E0F3BD97DB}" type="CELLRANGE">
+                    <a:fld id="{80F258A1-C3CC-445C-A851-83FC9DB827F9}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12123,7 +12134,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9EBA36A-5685-45F8-8FD2-06AD6C8C5371}" type="CELLRANGE">
+                    <a:fld id="{8200082A-9752-40F9-94BF-CFDFC9D3EC93}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12718,7 +12729,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94BAB56A-5056-4216-9BD3-417033848760}" type="CELLRANGE">
+                    <a:fld id="{BB39E082-41FF-4E53-9902-07DE27028005}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12752,7 +12763,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F470B0D-5964-48B5-A4E4-6B1B42EA1C3D}" type="CELLRANGE">
+                    <a:fld id="{D3C03E25-DE79-4617-A5A3-DA956B22DA08}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12786,7 +12797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{744EEE88-B1D5-4936-AD53-ABCB2AFF9688}" type="CELLRANGE">
+                    <a:fld id="{6FBC0390-8E45-4A32-A319-BF20AB3C365A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12820,7 +12831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4143D04-32B6-43EB-BFC8-2C8760199E36}" type="CELLRANGE">
+                    <a:fld id="{D8A8A530-AEDE-4643-94B6-2ACF27303B4F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12854,7 +12865,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28BC3E17-1B3E-40E2-89B8-F304C7B7EE84}" type="CELLRANGE">
+                    <a:fld id="{45174C44-9E11-4CE6-B1B9-33DA183CB7B3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12888,7 +12899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{805D2010-08A0-4480-BAC4-3FB5EA419900}" type="CELLRANGE">
+                    <a:fld id="{1CB8BA0B-E2BC-464A-9761-19F88FE248F6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12922,7 +12933,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{290A3A05-845E-46F7-A916-4C8660529154}" type="CELLRANGE">
+                    <a:fld id="{4AC738E5-32C1-4B37-8762-D8CFFF096E43}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12956,7 +12967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12642C67-1208-4801-97EF-FAA4EC84C801}" type="CELLRANGE">
+                    <a:fld id="{F95E2D6B-F98A-4DC2-982E-580D5F1FEF18}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12990,7 +13001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CF41D0F-52B4-479D-AED1-1785D241D39B}" type="CELLRANGE">
+                    <a:fld id="{AF1171AA-4DAF-486B-8C25-416793D1FEE2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13024,7 +13035,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F47EAD14-2BD3-438B-9650-D6D979AEF232}" type="CELLRANGE">
+                    <a:fld id="{CD3D4548-F709-4923-898D-06847A934DEA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13058,7 +13069,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED159B52-0E3D-4B49-BB5E-1A0D164D8F33}" type="CELLRANGE">
+                    <a:fld id="{90CBA9E4-A8CB-457E-A1DC-08F3B2A1E532}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -31591,8 +31602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -32705,6 +32716,1448 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.157</v>
+      </c>
+      <c r="C2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.17</v>
+      </c>
+      <c r="E2">
+        <v>0.152</v>
+      </c>
+      <c r="F2">
+        <v>0.125</v>
+      </c>
+      <c r="G2">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.104</v>
+      </c>
+      <c r="J2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K2">
+        <f>SUM(B2:J2)</f>
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.108</v>
+      </c>
+      <c r="C3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.124</v>
+      </c>
+      <c r="F3">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.09</v>
+      </c>
+      <c r="H3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="0">SUM(B3:J3)</f>
+        <v>0.81800000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.109</v>
+      </c>
+      <c r="E4">
+        <v>0.109</v>
+      </c>
+      <c r="F4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.106</v>
+      </c>
+      <c r="I4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.96999999999999986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.125</v>
+      </c>
+      <c r="C5">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.127</v>
+      </c>
+      <c r="E5">
+        <v>0.107</v>
+      </c>
+      <c r="F5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.06</v>
+      </c>
+      <c r="H5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J5">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.85999999999999976</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E6">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.09</v>
+      </c>
+      <c r="H6">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I6">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.83099999999999985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.161</v>
+      </c>
+      <c r="E7">
+        <v>0.125</v>
+      </c>
+      <c r="F7">
+        <v>0.115</v>
+      </c>
+      <c r="G7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.124</v>
+      </c>
+      <c r="J7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.15</v>
+      </c>
+      <c r="C8">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.121</v>
+      </c>
+      <c r="F8">
+        <v>0.11</v>
+      </c>
+      <c r="G8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.123</v>
+      </c>
+      <c r="J8">
+        <v>0.13</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1.1309999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.104</v>
+      </c>
+      <c r="D9">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.79799999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.109</v>
+      </c>
+      <c r="C10">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.111</v>
+      </c>
+      <c r="F10">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.115</v>
+      </c>
+      <c r="H10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.8919999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.108</v>
+      </c>
+      <c r="C11">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.125</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I11">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.04</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.109</v>
+      </c>
+      <c r="C12">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.115</v>
+      </c>
+      <c r="E12">
+        <v>0.114</v>
+      </c>
+      <c r="F12">
+        <v>0.121</v>
+      </c>
+      <c r="G12">
+        <v>0.105</v>
+      </c>
+      <c r="H12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.93699999999999983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.126</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J13">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f>B2/$K2*100</f>
+        <v>14.182475158084914</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:J16" si="1">C2/$K2*100</f>
+        <v>13.279132791327914</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>15.356820234869017</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>13.730803974706413</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>11.291779584462512</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>10.478771454381212</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>8.9430894308943092</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>9.3947606142728102</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>3.342366757000903</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K27" si="2">SUM(B16:J16)</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:J17" si="3">B3/$K3*100</f>
+        <v>13.202933985330073</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>10.39119804400978</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>11.613691931540341</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>15.158924205378971</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>14.547677261613689</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>11.002444987775061</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>11.36919315403423</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>8.0684596577017107</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>4.6454767726161359</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:J18" si="4">B4/$K4*100</f>
+        <v>14.742268041237114</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>12.268041237113403</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>11.237113402061857</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>11.237113402061857</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>9.8969072164948457</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>8.5567010309278366</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>10.927835051546394</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>8.9690721649484537</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>12.164948453608249</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:J19" si="5">B5/$K5*100</f>
+        <v>14.534883720930235</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="5"/>
+        <v>11.744186046511631</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>14.767441860465119</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>12.441860465116282</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>11.162790697674421</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>6.9767441860465134</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>7.3255813953488387</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>9.7674418604651194</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>11.279069767441865</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>100.00000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:J20" si="6">B6/$K6*100</f>
+        <v>14.320096269554755</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="6"/>
+        <v>14.079422382671483</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>16.245487364620942</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>10.348977135980746</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>11.913357400722024</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>10.830324909747294</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>9.8676293622142008</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>7.7015643802647427</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>4.6931407942238277</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:J21" si="7">B7/$K7*100</f>
+        <v>12.885154061624652</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="7"/>
+        <v>12.418300653594773</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="7"/>
+        <v>15.032679738562093</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>11.671335200746965</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>10.737628384687209</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>9.0569561157796468</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>11.577964519140989</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>7.0961718020541547</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:J22" si="8">B8/$K8*100</f>
+        <v>13.262599469496022</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="8"/>
+        <v>12.201591511936343</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="8"/>
+        <v>12.555260831122903</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>10.698496905393458</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="8"/>
+        <v>9.7259062776304184</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>8.6648983200707352</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="8"/>
+        <v>10.521662245800179</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>10.875331564986739</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="8"/>
+        <v>11.494252873563221</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:J23" si="9">B9/$K9*100</f>
+        <v>12.155388471177945</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="9"/>
+        <v>13.032581453634084</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="9"/>
+        <v>11.654135338345865</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="9"/>
+        <v>12.155388471177945</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="9"/>
+        <v>12.907268170426065</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>10.776942355889723</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>7.8947368421052637</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>10.401002506265664</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="9"/>
+        <v>9.0225563909774422</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:J24" si="10">B10/$K10*100</f>
+        <v>12.219730941704038</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="10"/>
+        <v>9.9775784753363244</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="10"/>
+        <v>11.547085201793722</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="10"/>
+        <v>12.443946188340808</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="10"/>
+        <v>10.426008968609866</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="10"/>
+        <v>12.892376681614351</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="10"/>
+        <v>10.31390134529148</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="10"/>
+        <v>9.8654708520179373</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="10"/>
+        <v>10.31390134529148</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:J25" si="11">B11/$K11*100</f>
+        <v>14.025974025974024</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="11"/>
+        <v>12.727272727272728</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="11"/>
+        <v>16.233766233766232</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="11"/>
+        <v>12.987012987012989</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="11"/>
+        <v>10.259740259740258</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="11"/>
+        <v>8.0519480519480524</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="11"/>
+        <v>11.168831168831167</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="11"/>
+        <v>9.3506493506493502</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="11"/>
+        <v>5.1948051948051948</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:J26" si="12">B12/$K12*100</f>
+        <v>11.632870864461047</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="12"/>
+        <v>14.300960512273218</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="12"/>
+        <v>12.273212379935968</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="12"/>
+        <v>12.166488794023483</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="12"/>
+        <v>12.913553895410887</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="12"/>
+        <v>11.205976520811101</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="12"/>
+        <v>9.3916755602988271</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="12"/>
+        <v>9.3916755602988271</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="12"/>
+        <v>6.7235859124866613</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:J27" si="13">B13/$K13*100</f>
+        <v>13.461538461538463</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="13"/>
+        <v>14.37246963562753</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="13"/>
+        <v>14.17004048582996</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="13"/>
+        <v>12.753036437246964</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="13"/>
+        <v>10.121457489878544</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="13"/>
+        <v>8.2995951417004061</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="13"/>
+        <v>10.425101214574898</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="13"/>
+        <v>6.9838056680161946</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="13"/>
+        <v>9.4129554655870447</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>16.203703703703702</v>
+      </c>
+      <c r="C30">
+        <v>14.19753086419753</v>
+      </c>
+      <c r="D30">
+        <v>16.820987654320987</v>
+      </c>
+      <c r="E30">
+        <v>14.506172839506174</v>
+      </c>
+      <c r="F30">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G30">
+        <v>9.8765432098765427</v>
+      </c>
+      <c r="H30">
+        <v>8.0246913580246915</v>
+      </c>
+      <c r="I30">
+        <v>7.5617283950617287</v>
+      </c>
+      <c r="J30">
+        <v>1.6975308641975309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>15.333333333333332</v>
+      </c>
+      <c r="C31">
+        <v>10.444444444444445</v>
+      </c>
+      <c r="D31">
+        <v>12.888888888888889</v>
+      </c>
+      <c r="E31">
+        <v>16.222222222222221</v>
+      </c>
+      <c r="F31">
+        <v>15.111111111111111</v>
+      </c>
+      <c r="G31">
+        <v>10.888888888888888</v>
+      </c>
+      <c r="H31">
+        <v>10.666666666666668</v>
+      </c>
+      <c r="I31">
+        <v>6.2222222222222223</v>
+      </c>
+      <c r="J31">
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>16.819012797074954</v>
+      </c>
+      <c r="C32">
+        <v>13.345521023765997</v>
+      </c>
+      <c r="D32">
+        <v>12.248628884826324</v>
+      </c>
+      <c r="E32">
+        <v>12.065813528336381</v>
+      </c>
+      <c r="F32">
+        <v>10.237659963436929</v>
+      </c>
+      <c r="G32">
+        <v>8.4095063985374772</v>
+      </c>
+      <c r="H32">
+        <v>10.054844606946983</v>
+      </c>
+      <c r="I32">
+        <v>7.6782449725776969</v>
+      </c>
+      <c r="J32">
+        <v>9.1407678244972583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>16.528925619834713</v>
+      </c>
+      <c r="C33">
+        <v>12.190082644628099</v>
+      </c>
+      <c r="D33">
+        <v>15.909090909090908</v>
+      </c>
+      <c r="E33">
+        <v>13.429752066115702</v>
+      </c>
+      <c r="F33">
+        <v>11.570247933884298</v>
+      </c>
+      <c r="G33">
+        <v>7.0247933884297522</v>
+      </c>
+      <c r="H33">
+        <v>6.6115702479338845</v>
+      </c>
+      <c r="I33">
+        <v>7.6446280991735529</v>
+      </c>
+      <c r="J33">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>16.204690831556505</v>
+      </c>
+      <c r="C34">
+        <v>14.925373134328357</v>
+      </c>
+      <c r="D34">
+        <v>17.697228144989339</v>
+      </c>
+      <c r="E34">
+        <v>10.874200426439232</v>
+      </c>
+      <c r="F34">
+        <v>12.366737739872068</v>
+      </c>
+      <c r="G34">
+        <v>10.660980810234541</v>
+      </c>
+      <c r="H34">
+        <v>8.7420042643923246</v>
+      </c>
+      <c r="I34">
+        <v>6.1833688699360341</v>
+      </c>
+      <c r="J34">
+        <v>2.3454157782515992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>14.165261382799327</v>
+      </c>
+      <c r="C35">
+        <v>12.984822934232715</v>
+      </c>
+      <c r="D35">
+        <v>16.526138279932546</v>
+      </c>
+      <c r="E35">
+        <v>12.310286677908937</v>
+      </c>
+      <c r="F35">
+        <v>11.129848229342327</v>
+      </c>
+      <c r="G35">
+        <v>9.1062394603709951</v>
+      </c>
+      <c r="H35">
+        <v>9.1062394603709951</v>
+      </c>
+      <c r="I35">
+        <v>9.4435075885328832</v>
+      </c>
+      <c r="J35">
+        <v>5.2276559865092747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>15.241057542768274</v>
+      </c>
+      <c r="C36">
+        <v>13.374805598755831</v>
+      </c>
+      <c r="D36">
+        <v>13.841368584758943</v>
+      </c>
+      <c r="E36">
+        <v>11.508553654743391</v>
+      </c>
+      <c r="F36">
+        <v>9.6423017107309477</v>
+      </c>
+      <c r="G36">
+        <v>8.0870917573872472</v>
+      </c>
+      <c r="H36">
+        <v>9.9533437013996888</v>
+      </c>
+      <c r="I36">
+        <v>9.0202177293934671</v>
+      </c>
+      <c r="J36">
+        <v>9.3312597200622083</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>13.551401869158877</v>
+      </c>
+      <c r="C37">
+        <v>13.551401869158877</v>
+      </c>
+      <c r="D37">
+        <v>12.850467289719624</v>
+      </c>
+      <c r="E37">
+        <v>13.084112149532709</v>
+      </c>
+      <c r="F37">
+        <v>13.551401869158877</v>
+      </c>
+      <c r="G37">
+        <v>10.981308411214954</v>
+      </c>
+      <c r="H37">
+        <v>7.2429906542056068</v>
+      </c>
+      <c r="I37">
+        <v>8.6448598130841123</v>
+      </c>
+      <c r="J37">
+        <v>6.5420560747663545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>13.168724279835391</v>
+      </c>
+      <c r="C38">
+        <v>10.08230452674897</v>
+      </c>
+      <c r="D38">
+        <v>12.962962962962962</v>
+      </c>
+      <c r="E38">
+        <v>13.786008230452676</v>
+      </c>
+      <c r="F38">
+        <v>10.905349794238683</v>
+      </c>
+      <c r="G38">
+        <v>13.374485596707819</v>
+      </c>
+      <c r="H38">
+        <v>9.8765432098765427</v>
+      </c>
+      <c r="I38">
+        <v>8.6419753086419746</v>
+      </c>
+      <c r="J38">
+        <v>7.2016460905349797</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>15.972222222222221</v>
+      </c>
+      <c r="C39">
+        <v>13.194444444444445</v>
+      </c>
+      <c r="D39">
+        <v>17.824074074074073</v>
+      </c>
+      <c r="E39">
+        <v>13.888888888888889</v>
+      </c>
+      <c r="F39">
+        <v>10.416666666666668</v>
+      </c>
+      <c r="G39">
+        <v>7.6388888888888893</v>
+      </c>
+      <c r="H39">
+        <v>10.648148148148149</v>
+      </c>
+      <c r="I39">
+        <v>8.1018518518518512</v>
+      </c>
+      <c r="J39">
+        <v>2.3148148148148149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>13.384321223709369</v>
+      </c>
+      <c r="C40">
+        <v>14.531548757170173</v>
+      </c>
+      <c r="D40">
+        <v>13.766730401529637</v>
+      </c>
+      <c r="E40">
+        <v>13.001912045889103</v>
+      </c>
+      <c r="F40">
+        <v>13.384321223709369</v>
+      </c>
+      <c r="G40">
+        <v>11.663479923518166</v>
+      </c>
+      <c r="H40">
+        <v>9.1778202676864247</v>
+      </c>
+      <c r="I40">
+        <v>7.8393881453154872</v>
+      </c>
+      <c r="J40">
+        <v>3.2504780114722758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>15.591397849462366</v>
+      </c>
+      <c r="C41">
+        <v>15.232974910394265</v>
+      </c>
+      <c r="D41">
+        <v>15.412186379928317</v>
+      </c>
+      <c r="E41">
+        <v>13.620071684587815</v>
+      </c>
+      <c r="F41">
+        <v>10.573476702508961</v>
+      </c>
+      <c r="G41">
+        <v>7.5268817204301079</v>
+      </c>
+      <c r="H41">
+        <v>9.8566308243727594</v>
+      </c>
+      <c r="I41">
+        <v>4.1218637992831546</v>
+      </c>
+      <c r="J41">
+        <v>8.064516129032258</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
@@ -34062,7 +35515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF65"/>
   <sheetViews>
@@ -44628,7 +46081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
@@ -45659,39 +47112,39 @@
         <v>226</v>
       </c>
       <c r="B31">
-        <f>VARP(B18,B19,B21,B22,B23,B24)</f>
+        <f t="shared" ref="B31:J31" si="14">VARP(B18,B19,B21,B22,B23,B24)</f>
         <v>11.74222222222223</v>
       </c>
       <c r="C31">
-        <f>VARP(C18,C19,C21,C22,C23,C24)</f>
+        <f t="shared" si="14"/>
         <v>19.192222222222782</v>
       </c>
       <c r="D31">
-        <f>VARP(D18,D19,D21,D22,D23,D24)</f>
+        <f t="shared" si="14"/>
         <v>17.040000000000063</v>
       </c>
       <c r="E31">
-        <f>VARP(E18,E19,E21,E22,E23,E24)</f>
+        <f t="shared" si="14"/>
         <v>2.4880555555555497</v>
       </c>
       <c r="F31">
-        <f>VARP(F18,F19,F21,F22,F23,F24)</f>
+        <f t="shared" si="14"/>
         <v>7.0113888888888907</v>
       </c>
       <c r="G31">
-        <f>VARP(G18,G19,G21,G22,G23,G24)</f>
+        <f t="shared" si="14"/>
         <v>12.018888888888796</v>
       </c>
       <c r="H31">
-        <f>VARP(H18,H19,H21,H22,H23,H24)</f>
+        <f t="shared" si="14"/>
         <v>33.038888888888728</v>
       </c>
       <c r="I31">
-        <f>VARP(I18,I19,I21,I22,I23,I24)</f>
+        <f t="shared" si="14"/>
         <v>18.743333333333187</v>
       </c>
       <c r="J31">
-        <f>VARP(J18,J19,J21,J22,J23,J24)</f>
+        <f t="shared" si="14"/>
         <v>19.072222222222383</v>
       </c>
     </row>
@@ -45704,35 +47157,35 @@
         <v>3.4266926069057071</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32" si="14">SQRT(C31)</f>
+        <f t="shared" ref="C32" si="15">SQRT(C31)</f>
         <v>4.3808928567385417</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32" si="15">SQRT(D31)</f>
+        <f t="shared" ref="D32" si="16">SQRT(D31)</f>
         <v>4.1279534881100659</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32" si="16">SQRT(E31)</f>
+        <f t="shared" ref="E32" si="17">SQRT(E31)</f>
         <v>1.5773571426774438</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32" si="17">SQRT(F31)</f>
+        <f t="shared" ref="F32" si="18">SQRT(F31)</f>
         <v>2.6479027340310086</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32" si="18">SQRT(G31)</f>
+        <f t="shared" ref="G32" si="19">SQRT(G31)</f>
         <v>3.4668269193729295</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32" si="19">SQRT(H31)</f>
+        <f t="shared" ref="H32" si="20">SQRT(H31)</f>
         <v>5.7479464932172712</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32" si="20">SQRT(I31)</f>
+        <f t="shared" ref="I32" si="21">SQRT(I31)</f>
         <v>4.329357150124391</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32" si="21">SQRT(J31)</f>
+        <f t="shared" ref="J32" si="22">SQRT(J31)</f>
         <v>4.3671755428677681</v>
       </c>
     </row>
@@ -45741,39 +47194,39 @@
         <v>227</v>
       </c>
       <c r="B33">
-        <f>VARP(B16,B17,B20,B25,B26,B27)</f>
+        <f t="shared" ref="B33:J33" si="23">VARP(B16,B17,B20,B25,B26,B27)</f>
         <v>15.892499999999927</v>
       </c>
       <c r="C33">
-        <f>VARP(C16,C17,C20,C25,C26,C27)</f>
+        <f t="shared" si="23"/>
         <v>52.738888888889655</v>
       </c>
       <c r="D33">
-        <f>VARP(D16,D17,D20,D25,D26,D27)</f>
+        <f t="shared" si="23"/>
         <v>17.995833333332889</v>
       </c>
       <c r="E33">
-        <f>VARP(E16,E17,E20,E25,E26,E27)</f>
+        <f t="shared" si="23"/>
         <v>20.105555555555636</v>
       </c>
       <c r="F33">
-        <f>VARP(F16,F17,F20,F25,F26,F27)</f>
+        <f t="shared" si="23"/>
         <v>27.411388888888624</v>
       </c>
       <c r="G33">
-        <f>VARP(G16,G17,G20,G25,G26,G27)</f>
+        <f t="shared" si="23"/>
         <v>7.1422222222222151</v>
       </c>
       <c r="H33">
-        <f>VARP(H16,H17,H20,H25,H26,H27)</f>
+        <f t="shared" si="23"/>
         <v>13.684722222222364</v>
       </c>
       <c r="I33">
-        <f>VARP(I16,I17,I20,I25,I26,I27)</f>
+        <f t="shared" si="23"/>
         <v>23.07138888888878</v>
       </c>
       <c r="J33">
-        <f>VARP(J16,J17,J20,J25,J26,J27)</f>
+        <f t="shared" si="23"/>
         <v>22.948888888888987</v>
       </c>
     </row>
@@ -45786,35 +47239,35 @@
         <v>3.9865398530555201</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34" si="22">SQRT(C33)</f>
+        <f t="shared" ref="C34" si="24">SQRT(C33)</f>
         <v>7.2621545624483685</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34" si="23">SQRT(D33)</f>
+        <f t="shared" ref="D34" si="25">SQRT(D33)</f>
         <v>4.2421496123230833</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34" si="24">SQRT(E33)</f>
+        <f t="shared" ref="E34" si="26">SQRT(E33)</f>
         <v>4.483921894453073</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34" si="25">SQRT(F33)</f>
+        <f t="shared" ref="F34" si="27">SQRT(F33)</f>
         <v>5.2355886859921137</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="26">SQRT(G33)</f>
+        <f t="shared" ref="G34" si="28">SQRT(G33)</f>
         <v>2.6724936337103249</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34" si="27">SQRT(H33)</f>
+        <f t="shared" ref="H34" si="29">SQRT(H33)</f>
         <v>3.6992867180339459</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34" si="28">SQRT(I33)</f>
+        <f t="shared" ref="I34" si="30">SQRT(I33)</f>
         <v>4.8032685630608647</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34" si="29">SQRT(J33)</f>
+        <f t="shared" ref="J34" si="31">SQRT(J33)</f>
         <v>4.7904998579364335</v>
       </c>
     </row>
@@ -46351,11 +47804,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -47616,7 +49069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N216"/>
   <sheetViews>
@@ -50539,7 +51992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L143"/>
   <sheetViews>
